--- a/data/material.xlsx
+++ b/data/material.xlsx
@@ -135,9 +135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -158,6 +158,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,7 +188,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,115 +285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,9 +498,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +546,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -553,8 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,26 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,8 +1074,8 @@
   <sheetPr/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/data/material.xlsx
+++ b/data/material.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>测试用例ID</t>
   </si>
@@ -52,6 +52,12 @@
     <t>状态码</t>
   </si>
   <si>
+    <t>保存结果解析方式</t>
+  </si>
+  <si>
+    <t>保存结果变量</t>
+  </si>
+  <si>
     <t>material_001</t>
   </si>
   <si>
@@ -67,7 +73,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>{"pageNo":1,"pageSize":10}</t>
+    <t>material/index.json</t>
   </si>
   <si>
     <t>九层塔</t>
@@ -94,7 +100,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"showBindingMaterialId":"","bindingMaterialId":0,"name":"测试xxxvv","brand":{"id":74},"category":{"attributes":2,"id":867},"unit":{"id":143},"materialUnitRatio":[],"shelfLife":"3","shelfLifeUnit":"天","completion":0,"completionUnit":"分钟","alarmTime":"3","alarmTimeUnit":"小时","img":null,"barCode":null,"tagTemplate":{"id":26},"manufacturerInfo":{"name":null,"address":null,"contactInfo":null},"attach":{"storageCondition":[]},"disabled":false,"unifyCode":"111xxcc","printed":true,"customDate":false,"descr":null,"innerPacking":"分","storageConditionIsSelect":0,"period_day":"","period_time":""}</t>
+    <t>material/add.json</t>
   </si>
   <si>
     <t>添加成功</t>
@@ -103,13 +109,19 @@
     <t>json</t>
   </si>
   <si>
+    <t>data.[0]</t>
+  </si>
+  <si>
+    <t>material_id</t>
+  </si>
+  <si>
     <t>material_003</t>
   </si>
   <si>
     <t>查看物料信息</t>
   </si>
   <si>
-    <t>n</t>
+    <t>/material/get/{material_id}</t>
   </si>
   <si>
     <t>material_004</t>
@@ -121,13 +133,25 @@
     <t>put</t>
   </si>
   <si>
+    <t>material/edit.json</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
     <t>material_005</t>
   </si>
   <si>
     <t>删除物料信息</t>
   </si>
   <si>
+    <t>/material/sync/{material_id}</t>
+  </si>
+  <si>
     <t>delete</t>
+  </si>
+  <si>
+    <t>删除成功</t>
   </si>
 </sst>
 </file>
@@ -135,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -158,17 +182,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,98 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,9 +271,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,26 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,17 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +591,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,145 +625,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1089,9 +1113,11 @@
     <col min="8" max="8" width="26.375" customWidth="1"/>
     <col min="10" max="10" width="13.0083333333333" customWidth="1"/>
     <col min="11" max="11" width="31.75" customWidth="1"/>
+    <col min="13" max="13" width="13.1" customWidth="1"/>
+    <col min="14" max="14" width="11.975" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,97 +1153,111 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
       </c>
       <c r="L3">
         <v>200</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>200</v>
@@ -1225,23 +1265,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>200</v>
@@ -1249,23 +1300,28 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>200</v>

--- a/data/material.xlsx
+++ b/data/material.xlsx
@@ -76,7 +76,7 @@
     <t>material/index.json</t>
   </si>
   <si>
-    <t>九层塔</t>
+    <t>导入物料4</t>
   </si>
   <si>
     <t>y</t>
@@ -161,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,37 +182,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,16 +233,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,22 +257,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -271,6 +264,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -280,7 +282,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,15 +297,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +312,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,15 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,6 +600,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -625,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,8 +1098,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
